--- a/FORMATO_REQUERIMIENTOS.xlsx
+++ b/FORMATO_REQUERIMIENTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\requerimientos_produccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB261C60-8B78-4813-9B46-8CFB0B9D08D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DB9229-A318-4B59-A021-6E551A1DBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>CANTIDAD</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t xml:space="preserve">CODILLO </t>
+  </si>
+  <si>
+    <t>CARNE 165 GR</t>
+  </si>
+  <si>
+    <t>CARNE 130 GR</t>
+  </si>
+  <si>
+    <t>CARNE 100 G</t>
+  </si>
+  <si>
+    <t>CARNE BLEND 200GR</t>
   </si>
   <si>
     <t>LOMITO GRILLADO 250G</t>
@@ -458,7 +470,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -557,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -566,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8"/>
     </row>
@@ -575,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -584,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" s="8"/>
     </row>
@@ -593,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="8"/>
     </row>
@@ -602,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15" s="8"/>
     </row>
@@ -611,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C16" s="8"/>
     </row>
@@ -620,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" s="8"/>
     </row>
@@ -629,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7"/>
     </row>
@@ -638,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7"/>
     </row>
@@ -647,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7"/>
     </row>
@@ -656,28 +668,44 @@
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/FORMATO_REQUERIMIENTOS.xlsx
+++ b/FORMATO_REQUERIMIENTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\requerimientos_produccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DB9229-A318-4B59-A021-6E551A1DBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4DCAED-6DAF-4FE8-A295-57B1EBE9EF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="FORMATO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FORMATO!$A$1:$C$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FORMATO!$A$1:$C$144</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>CANTIDAD</t>
   </si>
@@ -39,15 +39,9 @@
     <t>PRODUCTO</t>
   </si>
   <si>
-    <t>COSTILLA RACK</t>
-  </si>
-  <si>
     <t xml:space="preserve">COSTILLA 400GR </t>
   </si>
   <si>
-    <t>FALDA DE COSTILLA (KG)</t>
-  </si>
-  <si>
     <t>PROTEINAS</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>CHICHARRON 400GR</t>
   </si>
   <si>
-    <t>CHICHARRON 50GR</t>
-  </si>
-  <si>
     <t xml:space="preserve">CODILLO </t>
   </si>
   <si>
@@ -72,9 +63,6 @@
     <t>CARNE 130 GR</t>
   </si>
   <si>
-    <t>CARNE 100 G</t>
-  </si>
-  <si>
     <t>CARNE BLEND 200GR</t>
   </si>
   <si>
@@ -112,6 +100,15 @@
   </si>
   <si>
     <t>POLLO CESAR 165</t>
+  </si>
+  <si>
+    <t>CARNE 15 GR</t>
+  </si>
+  <si>
+    <t>CARNE 100 GR</t>
+  </si>
+  <si>
+    <t>MEDIO RACK DE COSTILLA</t>
   </si>
 </sst>
 </file>
@@ -467,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1001"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -494,7 +491,7 @@
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -503,16 +500,16 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -521,191 +518,187 @@
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -806,7 +799,7 @@
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="7"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
@@ -974,13 +967,13 @@
       <c r="C78" s="8"/>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="4"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="8"/>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="B80" s="5"/>
+      <c r="B80" s="4"/>
       <c r="C80" s="8"/>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -990,7 +983,7 @@
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="8"/>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1005,18 +998,18 @@
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
-      <c r="B85" s="5"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="8"/>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
-      <c r="B86" s="4"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="8"/>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="8"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="7"/>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
@@ -1116,7 +1109,7 @@
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="7"/>
+      <c r="C107" s="8"/>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
@@ -1303,26 +1296,22 @@
       <c r="B144" s="4"/>
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="8"/>
-    </row>
-    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2163,11 +2152,10 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:C145" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C145">
-      <sortCondition ref="A1:A145"/>
+  <autoFilter ref="A1:C144" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C144">
+      <sortCondition ref="A1:A144"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
